--- a/Tabela Servmar/Tabela_Servmar.xlsx
+++ b/Tabela Servmar/Tabela_Servmar.xlsx
@@ -8,23 +8,38 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://servmar365-my.sharepoint.com/personal/henrique_canhadas_servmarambiental_com/Documents/Documentos/Codigos/GitHub/Python/Tabela Servmar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_29F50D8D7FBBF63F43E052F65EF9063FFE746AC4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="11_29F50D8D7FBBF63F43E052F65EF9063FFE746AC4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FE1B427F-E996-4536-8631-08DAD21C4343}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="7540" yWindow="1280" windowWidth="14400" windowHeight="9850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TESTEGUIA" sheetId="1" r:id="rId1"/>
-    <sheet name="Planilha1" sheetId="2" r:id="rId2"/>
+    <sheet name="teste vi esquerda" sheetId="3" r:id="rId2"/>
+    <sheet name="Planilha1" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'teste vi esquerda'!$A$1:$X$30</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">TESTEGUIA!$A$1:$X$30</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="92">
   <si>
     <t>Resultados das análises químicas de metais dissolvidos nas amostras de água subterrânea (µg/L) - Band</t>
   </si>
@@ -382,7 +397,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="37">
+  <borders count="51">
     <border>
       <left/>
       <right/>
@@ -830,13 +845,193 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -936,35 +1131,29 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="22" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -973,34 +1162,88 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="38" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="39" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normal 4" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="41">
+  <dxfs count="82">
     <dxf>
       <font>
         <color theme="0" tint="-0.14990691854609822"/>
@@ -1282,7 +1525,8 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFD3D3D3"/>
+        <b/>
+        <color rgb="FFFF0000"/>
       </font>
       <border>
         <left style="thin">
@@ -1345,8 +1589,7 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <color rgb="FFFF0000"/>
+        <color rgb="FFD3D3D3"/>
       </font>
       <border>
         <left style="thin">
@@ -1429,7 +1672,7 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFD3D3D3"/>
+        <color rgb="FF000000"/>
       </font>
       <border>
         <left style="thin">
@@ -1450,7 +1693,8 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF000000"/>
+        <b/>
+        <color rgb="FFFF0000"/>
       </font>
       <border>
         <left style="thin">
@@ -1471,8 +1715,7 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <color rgb="FFFF0000"/>
+        <color rgb="FFD3D3D3"/>
       </font>
       <border>
         <left style="thin">
@@ -1535,7 +1778,7 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFD3D3D3"/>
+        <color rgb="FF000000"/>
       </font>
       <border>
         <left style="thin">
@@ -1556,7 +1799,8 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFD3D3D3"/>
+        <b/>
+        <color rgb="FFFF0000"/>
       </font>
       <border>
         <left style="thin">
@@ -1577,8 +1821,7 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <color rgb="FFFF0000"/>
+        <color rgb="FFD3D3D3"/>
       </font>
       <border>
         <left style="thin">
@@ -1599,7 +1842,681 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFD3D3D3"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color rgb="FF333031"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF333031"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF333031"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF333031"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD3D3D3"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color rgb="FF333031"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF333031"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF333031"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF333031"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF000000"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color rgb="FF333031"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF333031"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF333031"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF333031"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14990691854609822"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14990691854609822"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color rgb="FF333031"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF333031"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF333031"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF333031"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color rgb="FF333031"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF333031"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF333031"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF333031"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD3D3D3"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color rgb="FF333031"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF333031"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF333031"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF333031"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD3D3D3"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color rgb="FF333031"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF333031"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF333031"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF333031"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD3D3D3"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color rgb="FF333031"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF333031"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF333031"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF333031"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14990691854609822"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color rgb="FF333031"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF333031"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF333031"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF333031"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color rgb="FF333031"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF333031"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF333031"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF333031"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color rgb="FF333031"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF333031"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF333031"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF333031"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD3D3D3"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color rgb="FF333031"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF333031"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF333031"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF333031"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD3D3D3"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color rgb="FF333031"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF333031"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF333031"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF333031"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD3D3D3"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color rgb="FF333031"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF333031"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF333031"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF333031"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14990691854609822"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color rgb="FF333031"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF333031"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF333031"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF333031"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color rgb="FF333031"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF333031"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF333031"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF333031"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD3D3D3"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color rgb="FF333031"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF333031"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF333031"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF333031"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD3D3D3"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color rgb="FF333031"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF333031"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF333031"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF333031"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD3D3D3"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color rgb="FF333031"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF333031"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF333031"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF333031"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color rgb="FF333031"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF333031"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF333031"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF333031"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14990691854609822"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14990691854609822"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color rgb="FF333031"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF333031"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF333031"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF333031"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color rgb="FF333031"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF333031"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF333031"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF333031"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color rgb="FF333031"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF333031"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF333031"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF333031"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD3D3D3"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color rgb="FF333031"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF333031"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF333031"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF333031"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD3D3D3"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color rgb="FF333031"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF333031"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF333031"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF333031"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD3D3D3"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color rgb="FF333031"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF333031"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF333031"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF333031"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color rgb="FF333031"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF333031"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF333031"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF333031"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color rgb="FF333031"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF333031"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF333031"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF333031"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD3D3D3"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color rgb="FF333031"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF333031"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF333031"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF333031"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD3D3D3"/>
       </font>
       <border>
         <left style="thin">
@@ -1686,6 +2603,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1953,8 +2874,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X30"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="50" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="50" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="W17" sqref="W17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1976,90 +2897,90 @@
   <sheetData>
     <row r="1" spans="1:24" s="31" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
-      <c r="Q1" s="45"/>
-      <c r="R1" s="45"/>
-      <c r="S1" s="45"/>
-      <c r="T1" s="45"/>
-      <c r="U1" s="45"/>
-      <c r="V1" s="45"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="50"/>
+      <c r="V1" s="50"/>
       <c r="X1" s="1"/>
     </row>
     <row r="2" spans="1:24" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="54" t="s">
+      <c r="D2" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="55"/>
-      <c r="R2" s="55"/>
-      <c r="S2" s="55"/>
-      <c r="T2" s="55"/>
-      <c r="U2" s="56"/>
-      <c r="V2" s="51" t="s">
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52"/>
+      <c r="R2" s="52"/>
+      <c r="S2" s="52"/>
+      <c r="T2" s="52"/>
+      <c r="U2" s="53"/>
+      <c r="V2" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="W2" s="52"/>
+      <c r="W2" s="48"/>
     </row>
     <row r="3" spans="1:24" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="58"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="45"/>
-      <c r="R3" s="45"/>
-      <c r="S3" s="45"/>
-      <c r="T3" s="45"/>
-      <c r="U3" s="37"/>
-      <c r="V3" s="53"/>
-      <c r="W3" s="45"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="50"/>
+      <c r="P3" s="50"/>
+      <c r="Q3" s="50"/>
+      <c r="R3" s="50"/>
+      <c r="S3" s="50"/>
+      <c r="T3" s="50"/>
+      <c r="U3" s="54"/>
+      <c r="V3" s="49"/>
+      <c r="W3" s="50"/>
     </row>
     <row r="4" spans="1:24" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="58"/>
-      <c r="C4" s="36"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="64"/>
       <c r="D4" s="28" t="s">
         <v>5</v>
       </c>
@@ -2114,41 +3035,41 @@
       <c r="U4" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="V4" s="60" t="s">
+      <c r="V4" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="W4" s="48" t="s">
+      <c r="W4" s="42" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="58"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="40" t="s">
+      <c r="B5" s="61"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="40" t="s">
+      <c r="E5" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="40" t="s">
+      <c r="F5" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="40">
+      <c r="G5" s="44">
         <v>45117.631249999999</v>
       </c>
-      <c r="H5" s="62" t="s">
+      <c r="H5" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="40" t="s">
+      <c r="I5" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="J5" s="40" t="s">
+      <c r="J5" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="K5" s="62" t="s">
+      <c r="K5" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="L5" s="46" t="s">
+      <c r="L5" s="58" t="s">
         <v>31</v>
       </c>
       <c r="M5" s="38" t="s">
@@ -2169,7 +3090,7 @@
       <c r="R5" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="S5" s="50">
+      <c r="S5" s="46">
         <v>45121.380555555559</v>
       </c>
       <c r="T5" s="38" t="s">
@@ -2178,21 +3099,21 @@
       <c r="U5" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="V5" s="61"/>
-      <c r="W5" s="49"/>
+      <c r="V5" s="56"/>
+      <c r="W5" s="43"/>
     </row>
     <row r="6" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="59"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="63"/>
-      <c r="L6" s="47"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="59"/>
       <c r="M6" s="39"/>
       <c r="N6" s="39"/>
       <c r="O6" s="39"/>
@@ -2202,8 +3123,8 @@
       <c r="S6" s="39"/>
       <c r="T6" s="39"/>
       <c r="U6" s="39"/>
-      <c r="V6" s="61"/>
-      <c r="W6" s="49"/>
+      <c r="V6" s="56"/>
+      <c r="W6" s="43"/>
     </row>
     <row r="7" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="27" t="s">
@@ -3268,53 +4189,53 @@
       <c r="T23" s="1"/>
     </row>
     <row r="24" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="42" t="s">
+      <c r="B24" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="C24" s="43"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="43"/>
-      <c r="F24" s="43"/>
-      <c r="G24" s="43"/>
-      <c r="H24" s="43"/>
-      <c r="I24" s="43"/>
-      <c r="J24" s="43"/>
-      <c r="K24" s="43"/>
-      <c r="L24" s="43"/>
-      <c r="M24" s="43"/>
-      <c r="N24" s="43"/>
-      <c r="O24" s="43"/>
-      <c r="P24" s="43"/>
-      <c r="Q24" s="43"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="36"/>
+      <c r="L24" s="36"/>
+      <c r="M24" s="36"/>
+      <c r="N24" s="36"/>
+      <c r="O24" s="36"/>
+      <c r="P24" s="36"/>
+      <c r="Q24" s="36"/>
       <c r="R24" s="7"/>
       <c r="S24" s="4"/>
       <c r="T24" s="4"/>
       <c r="U24" s="4"/>
     </row>
     <row r="25" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="42" t="s">
+      <c r="B25" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="C25" s="43"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="43"/>
-      <c r="G25" s="43"/>
-      <c r="H25" s="43"/>
-      <c r="I25" s="43"/>
-      <c r="J25" s="43"/>
-      <c r="K25" s="43"/>
-      <c r="L25" s="43"/>
-      <c r="M25" s="43"/>
-      <c r="N25" s="43"/>
-      <c r="O25" s="43"/>
-      <c r="P25" s="43"/>
-      <c r="Q25" s="43"/>
-      <c r="R25" s="43"/>
-      <c r="S25" s="43"/>
-      <c r="T25" s="64"/>
-      <c r="U25" s="43"/>
-      <c r="V25" s="43"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="36"/>
+      <c r="K25" s="36"/>
+      <c r="L25" s="36"/>
+      <c r="M25" s="36"/>
+      <c r="N25" s="36"/>
+      <c r="O25" s="36"/>
+      <c r="P25" s="36"/>
+      <c r="Q25" s="36"/>
+      <c r="R25" s="36"/>
+      <c r="S25" s="36"/>
+      <c r="T25" s="37"/>
+      <c r="U25" s="36"/>
+      <c r="V25" s="36"/>
     </row>
     <row r="26" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="6" t="s">
@@ -3416,23 +4337,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B25:V25"/>
-    <mergeCell ref="T5:T6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="W4:W6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="S5:S6"/>
-    <mergeCell ref="U5:U6"/>
-    <mergeCell ref="V2:W3"/>
-    <mergeCell ref="D2:U3"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="V4:V6"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="B24:Q24"/>
     <mergeCell ref="B1:V1"/>
     <mergeCell ref="L5:L6"/>
     <mergeCell ref="N5:N6"/>
@@ -3443,167 +4347,184 @@
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="Q5:Q6"/>
     <mergeCell ref="F5:F6"/>
+    <mergeCell ref="V2:W3"/>
+    <mergeCell ref="D2:U3"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="V4:V6"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="B25:V25"/>
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="W4:W6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="U5:U6"/>
+    <mergeCell ref="B24:Q24"/>
   </mergeCells>
   <conditionalFormatting sqref="C1:XFD1 X2:XFD3 V4:XFD6 Y7:XFD22 C23:XFD1048576">
-    <cfRule type="containsText" dxfId="40" priority="60" operator="containsText" text="&lt;">
+    <cfRule type="containsText" dxfId="81" priority="60" operator="containsText" text="&lt;">
       <formula>NOT(ISERROR(SEARCH("&lt;",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:D20">
-    <cfRule type="containsText" dxfId="39" priority="56" operator="containsText" text="&lt;">
+    <cfRule type="containsText" dxfId="80" priority="56" operator="containsText" text="&lt;">
       <formula>NOT(ISERROR(SEARCH("&lt;",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:U4">
-    <cfRule type="containsText" dxfId="38" priority="17" operator="containsText" text="&lt;">
+    <cfRule type="containsText" dxfId="79" priority="17" operator="containsText" text="&lt;">
       <formula>NOT(ISERROR(SEARCH("&lt;",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10:G11 E13:G16 E18:G18 R11:R20 T11:T20 T8 G8:G9 G12 G17 G19:G20">
-    <cfRule type="beginsWith" dxfId="37" priority="57" stopIfTrue="1" operator="beginsWith" text="A">
+    <cfRule type="beginsWith" dxfId="78" priority="57" stopIfTrue="1" operator="beginsWith" text="A">
       <formula>LEFT(E8,1)="A"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10:G11 E13:G16 E18:G18">
-    <cfRule type="beginsWith" dxfId="36" priority="49" stopIfTrue="1" operator="beginsWith" text="&lt;">
+    <cfRule type="beginsWith" dxfId="77" priority="49" stopIfTrue="1" operator="beginsWith" text="&lt;">
       <formula>LEFT(E10,1)="&lt;"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="53" operator="greaterThanOrEqual">
+    <cfRule type="beginsWith" dxfId="76" priority="50" stopIfTrue="1" operator="beginsWith" text="n">
+      <formula>LEFT(E10,1)="n"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="75" priority="51" stopIfTrue="1" operator="beginsWith" text="N">
+      <formula>LEFT(E10,1)="N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="74" priority="52" operator="greaterThanOrEqual">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="73" priority="53" operator="greaterThanOrEqual">
       <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="52" operator="greaterThanOrEqual">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="33" priority="51" stopIfTrue="1" operator="beginsWith" text="N">
-      <formula>LEFT(E10,1)="N"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="32" priority="50" stopIfTrue="1" operator="beginsWith" text="n">
-      <formula>LEFT(E10,1)="n"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8:G9 G12 G17 G19:G20 H8:J8 H10:J20">
-    <cfRule type="beginsWith" dxfId="31" priority="72" stopIfTrue="1" operator="beginsWith" text="&lt;">
+    <cfRule type="beginsWith" dxfId="72" priority="72" stopIfTrue="1" operator="beginsWith" text="&lt;">
       <formula>LEFT(G8,1)="&lt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8:J8 G8:G9 H10:J20 G12 G17 G19:G20">
-    <cfRule type="beginsWith" dxfId="30" priority="74" stopIfTrue="1" operator="beginsWith" text="N">
+    <cfRule type="beginsWith" dxfId="71" priority="73" stopIfTrue="1" operator="beginsWith" text="n">
+      <formula>LEFT(G8,1)="n"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="70" priority="74" stopIfTrue="1" operator="beginsWith" text="N">
       <formula>LEFT(G8,1)="N"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="75" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="69" priority="75" operator="greaterThanOrEqual">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="76" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="68" priority="76" operator="greaterThanOrEqual">
       <formula>0</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="27" priority="73" stopIfTrue="1" operator="beginsWith" text="n">
-      <formula>LEFT(G8,1)="n"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8:J8 H10:J20">
-    <cfRule type="beginsWith" dxfId="26" priority="39" stopIfTrue="1" operator="beginsWith" text="A">
+    <cfRule type="beginsWith" dxfId="67" priority="39" stopIfTrue="1" operator="beginsWith" text="A">
       <formula>LEFT(H8,1)="A"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7:K20">
-    <cfRule type="containsText" dxfId="25" priority="40" operator="containsText" text="&lt;">
+    <cfRule type="containsText" dxfId="66" priority="40" operator="containsText" text="&lt;">
       <formula>NOT(ISERROR(SEARCH("&lt;",H7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L7:L9">
-    <cfRule type="containsText" dxfId="24" priority="37" operator="containsText" text="&lt;">
+    <cfRule type="containsText" dxfId="65" priority="37" operator="containsText" text="&lt;">
       <formula>NOT(ISERROR(SEARCH("&lt;",L7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M7:N22 O15:Q22 S7:S22 U7:U22 L11:L22 R11:R22 T11:T22 D21:K22">
-    <cfRule type="containsText" dxfId="23" priority="41" operator="containsText" text="&lt;">
+    <cfRule type="containsText" dxfId="64" priority="41" operator="containsText" text="&lt;">
       <formula>NOT(ISERROR(SEARCH("&lt;",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M10:N20">
-    <cfRule type="containsText" dxfId="22" priority="29" operator="containsText" text="&lt;">
+    <cfRule type="containsText" dxfId="63" priority="29" operator="containsText" text="&lt;">
       <formula>NOT(ISERROR(SEARCH("&lt;",M10)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="35" operator="greaterThanOrEqual">
+    <cfRule type="beginsWith" dxfId="62" priority="30" stopIfTrue="1" operator="beginsWith" text="A">
+      <formula>LEFT(M10,1)="A"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="61" priority="31" stopIfTrue="1" operator="beginsWith" text="&lt;">
+      <formula>LEFT(M10,1)="&lt;"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="60" priority="32" stopIfTrue="1" operator="beginsWith" text="n">
+      <formula>LEFT(M10,1)="n"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="59" priority="33" stopIfTrue="1" operator="beginsWith" text="N">
+      <formula>LEFT(M10,1)="N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="58" priority="34" operator="greaterThanOrEqual">
+      <formula>$D10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="57" priority="35" operator="greaterThanOrEqual">
       <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="34" operator="greaterThanOrEqual">
-      <formula>$D10</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="19" priority="33" stopIfTrue="1" operator="beginsWith" text="N">
-      <formula>LEFT(M10,1)="N"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="18" priority="32" stopIfTrue="1" operator="beginsWith" text="n">
-      <formula>LEFT(M10,1)="n"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="17" priority="31" stopIfTrue="1" operator="beginsWith" text="&lt;">
-      <formula>LEFT(M10,1)="&lt;"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="16" priority="30" stopIfTrue="1" operator="beginsWith" text="A">
-      <formula>LEFT(M10,1)="A"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M7:Q8 O10:Q11 O13:Q13 P14:Q14 O15:Q20">
-    <cfRule type="containsText" dxfId="15" priority="20" operator="containsText" text="&lt;">
+    <cfRule type="containsText" dxfId="56" priority="20" operator="containsText" text="&lt;">
       <formula>NOT(ISERROR(SEARCH("&lt;",M7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M8:Q8 O10:Q11 P12:Q12 O13:Q13 P14:Q14 O15:Q20">
-    <cfRule type="beginsWith" dxfId="14" priority="22" stopIfTrue="1" operator="beginsWith" text="&lt;">
+    <cfRule type="beginsWith" dxfId="55" priority="22" stopIfTrue="1" operator="beginsWith" text="&lt;">
       <formula>LEFT(M8,1)="&lt;"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="13" priority="23" stopIfTrue="1" operator="beginsWith" text="n">
+    <cfRule type="beginsWith" dxfId="54" priority="23" stopIfTrue="1" operator="beginsWith" text="n">
       <formula>LEFT(M8,1)="n"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="12" priority="24" stopIfTrue="1" operator="beginsWith" text="N">
+    <cfRule type="beginsWith" dxfId="53" priority="24" stopIfTrue="1" operator="beginsWith" text="N">
       <formula>LEFT(M8,1)="N"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="25" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="52" priority="25" operator="greaterThanOrEqual">
       <formula>$D8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="26" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="51" priority="26" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M8:R8 O10:Q11 O13:Q13 P14:Q14 O15:Q20 P12:Q12">
-    <cfRule type="beginsWith" dxfId="9" priority="21" stopIfTrue="1" operator="beginsWith" text="A">
+    <cfRule type="beginsWith" dxfId="50" priority="21" stopIfTrue="1" operator="beginsWith" text="A">
       <formula>LEFT(M8,1)="A"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O7:Q13 P14:Q14">
-    <cfRule type="containsText" dxfId="8" priority="18" operator="containsText" text="&lt;">
+    <cfRule type="containsText" dxfId="49" priority="18" operator="containsText" text="&lt;">
       <formula>NOT(ISERROR(SEARCH("&lt;",O7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P12:Q12">
-    <cfRule type="containsText" dxfId="7" priority="19" operator="containsText" text="&lt;">
+    <cfRule type="containsText" dxfId="48" priority="19" operator="containsText" text="&lt;">
       <formula>NOT(ISERROR(SEARCH("&lt;",P12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R7:R9 T7:T9 E7:F20">
-    <cfRule type="containsText" dxfId="6" priority="59" operator="containsText" text="&lt;">
+    <cfRule type="containsText" dxfId="47" priority="59" operator="containsText" text="&lt;">
       <formula>NOT(ISERROR(SEARCH("&lt;",E7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R8 T8 R11:R20 T11:T20">
-    <cfRule type="beginsWith" dxfId="5" priority="67" stopIfTrue="1" operator="beginsWith" text="&lt;">
+    <cfRule type="beginsWith" dxfId="46" priority="67" stopIfTrue="1" operator="beginsWith" text="&lt;">
       <formula>LEFT(R8,1)="&lt;"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="4" priority="68" stopIfTrue="1" operator="beginsWith" text="n">
+    <cfRule type="beginsWith" dxfId="45" priority="68" stopIfTrue="1" operator="beginsWith" text="n">
       <formula>LEFT(R8,1)="n"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="3" priority="69" stopIfTrue="1" operator="beginsWith" text="N">
+    <cfRule type="beginsWith" dxfId="44" priority="69" stopIfTrue="1" operator="beginsWith" text="N">
       <formula>LEFT(R8,1)="N"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="70" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="43" priority="70" operator="greaterThanOrEqual">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="71" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="42" priority="71" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T8 E7:G20 R11:R20 T11:T20 R7:R8">
-    <cfRule type="containsText" dxfId="0" priority="58" operator="containsText" text="&lt;">
+    <cfRule type="containsText" dxfId="41" priority="58" operator="containsText" text="&lt;">
       <formula>NOT(ISERROR(SEARCH("&lt;",E7)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3613,6 +4534,1671 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{418804C7-5EE9-4E7F-8D7E-F3B689FA33C8}">
+  <dimension ref="B1:W30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="50" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.453125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.453125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="23.81640625" style="1" customWidth="1"/>
+    <col min="4" max="5" width="19.54296875" style="1" customWidth="1"/>
+    <col min="6" max="9" width="19.7265625" style="1" customWidth="1"/>
+    <col min="10" max="13" width="20" style="1" customWidth="1"/>
+    <col min="14" max="17" width="19.7265625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="20.26953125" style="1" customWidth="1"/>
+    <col min="19" max="21" width="19.7265625" style="1" customWidth="1"/>
+    <col min="22" max="22" width="19.7265625" style="2" customWidth="1"/>
+    <col min="23" max="23" width="19.7265625" style="1" customWidth="1"/>
+    <col min="24" max="25" width="9.1796875" style="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.1796875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:23" s="84" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B1" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86"/>
+      <c r="R1" s="86"/>
+      <c r="S1" s="86"/>
+      <c r="T1" s="86"/>
+      <c r="U1" s="86"/>
+      <c r="V1" s="86"/>
+      <c r="W1" s="86"/>
+    </row>
+    <row r="2" spans="2:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="78" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="79" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="48"/>
+      <c r="F2" s="70" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="48"/>
+      <c r="Q2" s="48"/>
+      <c r="R2" s="48"/>
+      <c r="S2" s="48"/>
+      <c r="T2" s="48"/>
+      <c r="U2" s="48"/>
+      <c r="V2" s="48"/>
+      <c r="W2" s="71"/>
+    </row>
+    <row r="3" spans="2:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="56"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="50"/>
+      <c r="P3" s="50"/>
+      <c r="Q3" s="50"/>
+      <c r="R3" s="50"/>
+      <c r="S3" s="50"/>
+      <c r="T3" s="50"/>
+      <c r="U3" s="50"/>
+      <c r="V3" s="50"/>
+      <c r="W3" s="54"/>
+    </row>
+    <row r="4" spans="2:23" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="56"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="72" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="M4" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="N4" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="O4" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="P4" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q4" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="R4" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="S4" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="T4" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="U4" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="V4" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="W4" s="73" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="2:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="56"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="74" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="44">
+        <v>45117.631249999999</v>
+      </c>
+      <c r="J5" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="L5" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="M5" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="N5" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="O5" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="P5" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q5" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="R5" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="S5" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="T5" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="U5" s="46">
+        <v>45121.380555555559</v>
+      </c>
+      <c r="V5" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="W5" s="75" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="2:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="80"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="41"/>
+      <c r="N6" s="62"/>
+      <c r="O6" s="39"/>
+      <c r="P6" s="39"/>
+      <c r="Q6" s="39"/>
+      <c r="R6" s="39"/>
+      <c r="S6" s="39"/>
+      <c r="T6" s="39"/>
+      <c r="U6" s="39"/>
+      <c r="V6" s="39"/>
+      <c r="W6" s="77"/>
+    </row>
+    <row r="7" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="81" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="23">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="J7" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="K7" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="L7" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="M7" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="N7" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="O7" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="P7" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q7" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="R7" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="S7" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="T7" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="U7" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="V7" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="W7" s="29" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="82" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="16">
+        <v>0.01</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="J8" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="K8" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="L8" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="M8" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="N8" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="O8" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="P8" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q8" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="R8" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="S8" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="T8" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="U8" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="V8" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="W8" s="19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="82" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="16">
+        <v>2.4</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="J9" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="K9" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="L9" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="M9" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="N9" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="O9" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="P9" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q9" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="R9" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="S9" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="T9" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="U9" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="V9" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="W9" s="19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="82" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="16">
+        <v>0.7</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" s="17">
+        <v>4.1300000000000003E-2</v>
+      </c>
+      <c r="I10" s="17">
+        <v>3.04E-2</v>
+      </c>
+      <c r="J10" s="17">
+        <v>5.4699999999999999E-2</v>
+      </c>
+      <c r="K10" s="17">
+        <v>0.08</v>
+      </c>
+      <c r="L10" s="17">
+        <v>2.0400000000000001E-2</v>
+      </c>
+      <c r="M10" s="17">
+        <v>6.2899999999999998E-2</v>
+      </c>
+      <c r="N10" s="18">
+        <v>2.87E-2</v>
+      </c>
+      <c r="O10" s="17">
+        <v>1.9400000000000001E-2</v>
+      </c>
+      <c r="P10" s="17">
+        <v>1.29E-2</v>
+      </c>
+      <c r="Q10" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="R10" s="17">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="S10" s="17">
+        <v>1.41E-2</v>
+      </c>
+      <c r="T10" s="17">
+        <v>2.3400000000000001E-2</v>
+      </c>
+      <c r="U10" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="V10" s="17">
+        <v>1.34E-2</v>
+      </c>
+      <c r="W10" s="19">
+        <v>6.7900000000000002E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="82" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="16">
+        <v>0.01</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="J11" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="K11" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="L11" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="M11" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="N11" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="O11" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="P11" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q11" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="R11" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="S11" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="T11" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="U11" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="V11" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="W11" s="19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="82" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="16">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="J12" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="K12" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="L12" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="M12" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="N12" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="O12" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="P12" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q12" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="R12" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="S12" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="T12" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="U12" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="V12" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="W12" s="19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="82" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="16">
+        <v>2</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="H13" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="I13" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="J13" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="K13" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="L13" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="M13" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="N13" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="O13" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="P13" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q13" s="17">
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="R13" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="S13" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="T13" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="U13" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="V13" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="W13" s="19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="82" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" s="16">
+        <v>0.05</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="G14" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="J14" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="K14" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="L14" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="M14" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="N14" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="O14" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="P14" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q14" s="21">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="R14" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="S14" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="T14" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="U14" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="V14" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="W14" s="19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="82" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" s="16">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="H15" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="I15" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="J15" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="K15" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="L15" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="M15" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="N15" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="O15" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="P15" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q15" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="R15" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="S15" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="T15" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="U15" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="V15" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="W15" s="19" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="82" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" s="16">
+        <v>1E-3</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="I16" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="J16" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="K16" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="L16" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="M16" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="N16" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="O16" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="P16" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q16" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="R16" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="S16" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="T16" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="U16" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="V16" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="W16" s="19" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="82" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" s="16">
+        <v>0.03</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="J17" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="K17" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="L17" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="M17" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="N17" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="O17" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="P17" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q17" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="R17" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="S17" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="T17" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="U17" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="V17" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="W17" s="19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="82" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="D18" s="16">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="G18" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="J18" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="K18" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="L18" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="M18" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="N18" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="O18" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="P18" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q18" s="17">
+        <v>2.63E-2</v>
+      </c>
+      <c r="R18" s="17">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="S18" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="T18" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="U18" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="V18" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="W18" s="19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="82" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="D19" s="16">
+        <v>0.05</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="G19" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="H19" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="I19" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="J19" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="K19" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="L19" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="M19" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="N19" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="O19" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="P19" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q19" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="R19" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="S19" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="T19" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="U19" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="V19" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="W19" s="19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="82" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="D20" s="16">
+        <v>0.04</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="J20" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="K20" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="L20" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="M20" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="N20" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="O20" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="P20" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q20" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="R20" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="S20" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="T20" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="U20" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="V20" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="W20" s="19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="2:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="83" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="D21" s="10">
+        <v>1.8</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" s="10">
+        <v>1.01E-2</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="J21" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="K21" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="L21" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="M21" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="N21" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="O21" s="11">
+        <v>1.44E-2</v>
+      </c>
+      <c r="P21" s="11">
+        <v>7.6E-3</v>
+      </c>
+      <c r="Q21" s="11">
+        <v>0.22</v>
+      </c>
+      <c r="R21" s="11">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="S21" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="T21" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="U21" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="V21" s="11">
+        <v>4.5699999999999998E-2</v>
+      </c>
+      <c r="W21" s="13">
+        <v>2.81E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="32"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="33"/>
+      <c r="L22" s="33"/>
+      <c r="M22" s="33"/>
+      <c r="N22" s="33"/>
+      <c r="O22" s="33"/>
+      <c r="P22" s="33"/>
+      <c r="Q22" s="33"/>
+      <c r="R22" s="33"/>
+      <c r="S22" s="33"/>
+      <c r="T22" s="33"/>
+      <c r="U22" s="33"/>
+      <c r="V22" s="33"/>
+      <c r="W22" s="33"/>
+    </row>
+    <row r="23" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="V23" s="1"/>
+    </row>
+    <row r="24" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="36"/>
+      <c r="L24" s="36"/>
+      <c r="M24" s="36"/>
+      <c r="N24" s="36"/>
+      <c r="O24" s="36"/>
+      <c r="P24" s="36"/>
+      <c r="Q24" s="36"/>
+      <c r="R24" s="36"/>
+      <c r="S24" s="36"/>
+      <c r="T24" s="7"/>
+      <c r="U24" s="4"/>
+      <c r="V24" s="4"/>
+      <c r="W24" s="4"/>
+    </row>
+    <row r="25" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="36"/>
+      <c r="K25" s="36"/>
+      <c r="L25" s="36"/>
+      <c r="M25" s="36"/>
+      <c r="N25" s="36"/>
+      <c r="O25" s="36"/>
+      <c r="P25" s="36"/>
+      <c r="Q25" s="36"/>
+      <c r="R25" s="36"/>
+      <c r="S25" s="36"/>
+      <c r="T25" s="36"/>
+      <c r="U25" s="36"/>
+      <c r="V25" s="37"/>
+      <c r="W25" s="36"/>
+    </row>
+    <row r="26" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="F26" s="4"/>
+    </row>
+    <row r="27" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C27" s="4"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="4"/>
+      <c r="S27" s="4"/>
+      <c r="T27" s="4"/>
+      <c r="U27" s="4"/>
+      <c r="V27" s="4"/>
+    </row>
+    <row r="28" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C28" s="4"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="4"/>
+      <c r="S28" s="4"/>
+      <c r="T28" s="4"/>
+      <c r="U28" s="4"/>
+      <c r="V28" s="4"/>
+    </row>
+    <row r="29" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D29" s="5"/>
+      <c r="E29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="4"/>
+      <c r="S29" s="4"/>
+      <c r="T29" s="4"/>
+      <c r="U29" s="4"/>
+      <c r="V29" s="4"/>
+    </row>
+    <row r="30" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D30" s="5"/>
+      <c r="E30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="4"/>
+      <c r="S30" s="4"/>
+      <c r="T30" s="4"/>
+      <c r="U30" s="4"/>
+      <c r="V30" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="27">
+    <mergeCell ref="U5:U6"/>
+    <mergeCell ref="V5:V6"/>
+    <mergeCell ref="W5:W6"/>
+    <mergeCell ref="B24:S24"/>
+    <mergeCell ref="B25:W25"/>
+    <mergeCell ref="D2:E3"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="B1:W1"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="F2:W3"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+  </mergeCells>
+  <conditionalFormatting sqref="D4:E6 X2:XFD22 C1:XFD1 C23:XFD1048576">
+    <cfRule type="containsText" dxfId="40" priority="31" operator="containsText" text="&lt;">
+      <formula>NOT(ISERROR(SEARCH("&lt;",C1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7:F20">
+    <cfRule type="containsText" dxfId="39" priority="27" operator="containsText" text="&lt;">
+      <formula>NOT(ISERROR(SEARCH("&lt;",F7)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:W4">
+    <cfRule type="containsText" dxfId="38" priority="1" operator="containsText" text="&lt;">
+      <formula>NOT(ISERROR(SEARCH("&lt;",F2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G10:I11 G13:I16 G18:I18 T11:T20 V11:V20 V8 I8:I9 I12 I17 I19:I20">
+    <cfRule type="beginsWith" dxfId="37" priority="28" stopIfTrue="1" operator="beginsWith" text="A">
+      <formula>LEFT(G8,1)="A"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G10:I11 G13:I16 G18:I18">
+    <cfRule type="beginsWith" dxfId="36" priority="22" stopIfTrue="1" operator="beginsWith" text="&lt;">
+      <formula>LEFT(G10,1)="&lt;"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="35" priority="23" stopIfTrue="1" operator="beginsWith" text="n">
+      <formula>LEFT(G10,1)="n"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="34" priority="24" stopIfTrue="1" operator="beginsWith" text="N">
+      <formula>LEFT(G10,1)="N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="25" operator="greaterThanOrEqual">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="32" priority="26" operator="greaterThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I8:I9 I12 I17 I19:I20 J8:L8 J10:L20">
+    <cfRule type="beginsWith" dxfId="31" priority="37" stopIfTrue="1" operator="beginsWith" text="&lt;">
+      <formula>LEFT(I8,1)="&lt;"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J8:L8 I8:I9 J10:L20 I12 I17 I19:I20">
+    <cfRule type="beginsWith" dxfId="30" priority="38" stopIfTrue="1" operator="beginsWith" text="n">
+      <formula>LEFT(I8,1)="n"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="29" priority="39" stopIfTrue="1" operator="beginsWith" text="N">
+      <formula>LEFT(I8,1)="N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="40" operator="greaterThanOrEqual">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="27" priority="41" operator="greaterThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J8:L8 J10:L20">
+    <cfRule type="beginsWith" dxfId="26" priority="19" stopIfTrue="1" operator="beginsWith" text="A">
+      <formula>LEFT(J8,1)="A"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J7:M20">
+    <cfRule type="containsText" dxfId="25" priority="20" operator="containsText" text="&lt;">
+      <formula>NOT(ISERROR(SEARCH("&lt;",J7)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N7:N9">
+    <cfRule type="containsText" dxfId="24" priority="18" operator="containsText" text="&lt;">
+      <formula>NOT(ISERROR(SEARCH("&lt;",N7)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O7:P22 Q15:S22 U7:U22 W7:W22 N11:N22 T11:T22 V11:V22 F21:M22">
+    <cfRule type="containsText" dxfId="23" priority="21" operator="containsText" text="&lt;">
+      <formula>NOT(ISERROR(SEARCH("&lt;",F7)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O10:P20">
+    <cfRule type="containsText" dxfId="22" priority="11" operator="containsText" text="&lt;">
+      <formula>NOT(ISERROR(SEARCH("&lt;",O10)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="21" priority="12" stopIfTrue="1" operator="beginsWith" text="A">
+      <formula>LEFT(O10,1)="A"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="20" priority="13" stopIfTrue="1" operator="beginsWith" text="&lt;">
+      <formula>LEFT(O10,1)="&lt;"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="19" priority="14" stopIfTrue="1" operator="beginsWith" text="n">
+      <formula>LEFT(O10,1)="n"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="18" priority="15" stopIfTrue="1" operator="beginsWith" text="N">
+      <formula>LEFT(O10,1)="N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="16" operator="greaterThanOrEqual">
+      <formula>$F10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="17" operator="greaterThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O7:S8 Q10:S11 Q13:S13 R14:S14 Q15:S20">
+    <cfRule type="containsText" dxfId="15" priority="4" operator="containsText" text="&lt;">
+      <formula>NOT(ISERROR(SEARCH("&lt;",O7)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O8:S8 Q10:S11 R12:S12 Q13:S13 R14:S14 Q15:S20">
+    <cfRule type="beginsWith" dxfId="14" priority="6" stopIfTrue="1" operator="beginsWith" text="&lt;">
+      <formula>LEFT(O8,1)="&lt;"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="13" priority="7" stopIfTrue="1" operator="beginsWith" text="n">
+      <formula>LEFT(O8,1)="n"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="12" priority="8" stopIfTrue="1" operator="beginsWith" text="N">
+      <formula>LEFT(O8,1)="N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="9" operator="greaterThanOrEqual">
+      <formula>$F8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="10" operator="greaterThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O8:T8 Q10:S11 Q13:S13 R14:S14 Q15:S20 R12:S12">
+    <cfRule type="beginsWith" dxfId="9" priority="5" stopIfTrue="1" operator="beginsWith" text="A">
+      <formula>LEFT(O8,1)="A"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q7:S13 R14:S14">
+    <cfRule type="containsText" dxfId="8" priority="2" operator="containsText" text="&lt;">
+      <formula>NOT(ISERROR(SEARCH("&lt;",Q7)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R12:S12">
+    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="&lt;">
+      <formula>NOT(ISERROR(SEARCH("&lt;",R12)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T7:T9 V7:V9 G7:H20">
+    <cfRule type="containsText" dxfId="6" priority="30" operator="containsText" text="&lt;">
+      <formula>NOT(ISERROR(SEARCH("&lt;",G7)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T8 V8 T11:T20 V11:V20">
+    <cfRule type="beginsWith" dxfId="5" priority="32" stopIfTrue="1" operator="beginsWith" text="&lt;">
+      <formula>LEFT(T8,1)="&lt;"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="4" priority="33" stopIfTrue="1" operator="beginsWith" text="n">
+      <formula>LEFT(T8,1)="n"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="3" priority="34" stopIfTrue="1" operator="beginsWith" text="N">
+      <formula>LEFT(T8,1)="N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="35" operator="greaterThanOrEqual">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="36" operator="greaterThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V7:V8 G7:I20 T11:T20 V11:V20 T7:T8">
+    <cfRule type="containsText" dxfId="0" priority="29" operator="containsText" text="&lt;">
+      <formula>NOT(ISERROR(SEARCH("&lt;",G7)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" scale="19" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
